--- a/data/unit_price.xlsx
+++ b/data/unit_price.xlsx
@@ -20,10 +20,10 @@
     <t xml:space="preserve">price</t>
   </si>
   <si>
-    <t xml:space="preserve">japanese_lunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunch</t>
+    <t xml:space="preserve">japanese_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_meal</t>
   </si>
   <si>
     <t xml:space="preserve">curry</t>
@@ -53,8 +53,7 @@
     <t xml:space="preserve">spaghetti</t>
   </si>
   <si>
-    <t xml:space="preserve">
-sandwich</t>
+    <t xml:space="preserve">sandwich</t>
   </si>
 </sst>
 </file>
